--- a/biology/Histoire de la zoologie et de la botanique/Jean-Luc_Perret/Jean-Luc_Perret.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Luc_Perret/Jean-Luc_Perret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Luc Perret est un herpétologue suisse, né en 1925 à Cortaillod, dans le canton de Neuchâtel, et mort le 26 janvier 2023 à Genève[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Luc Perret est un herpétologue suisse, né en 1925 à Cortaillod, dans le canton de Neuchâtel, et mort le 26 janvier 2023 à Genève.
 Il a été chargé de recherche au Musée d'histoire naturelle de La Chaux-de-Fonds, puis au Muséum d'histoire naturelle de Genève. Ce dernier possède aujourd'hui ses collections (faites avec Raymond Laurent) sur les amphibiens d'Afrique subsaharienne (Kenya, Cameroun et Zaïre).
 Il est l'auteur de plusieurs dizaines de publications relatives aux amphibiens et reptiles, essentiellement africains.
 Thèse à l'Université de Neuchâtel en 1963: « Les Amphibiens du Cameroun », parue in Zoologische Jahrbücher, Jena, Bd. 93 (1966), p. 289-464.
@@ -514,7 +526,9 @@
           <t>Éponymies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les taxons suivants sont dédiés à Jean-Luc Perret :
 Ptychadena perreti Guibé &amp; Lamotte, 1958
@@ -523,10 +537,10 @@
 Hemisus perreti Laurent, 1972
 Petropedetes perreti Amiet, 1973
 Astylosternus perreti Amiet, 1978
-Myriopholis perreti Roux-Estève, 1979[2]
+Myriopholis perreti Roux-Estève, 1979
 Oswaldocruzia perreti Durette-Desset &amp; Vaucher, 1979
 Feaella perreti Mahnert, 1982
-Trioceros perreti (Klaver &amp; Böhme, 1992)[2]
+Trioceros perreti (Klaver &amp; Böhme, 1992)
 Arthroleptis perreti Blackburn, Gonwouo, Ernst &amp; Rödel, 2009</t>
         </is>
       </c>
@@ -555,7 +569,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Afrixalus lacteus Perret, 1976
